--- a/data/match_sent/excel/match_2648.csv.xlsx
+++ b/data/match_sent/excel/match_2648.csv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phuong\PycharmProjects\tosdr\data\match_sent\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Notebook Dell\PycharmProjects\tosdr\data\match_sent\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F6FD2F4-AD12-4CAF-A04F-F1E1117E0787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54D94BB-32A4-4CFF-A829-B0A2945348C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2A4A26F7-E03D-4299-B568-FBD4039A38EB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{2A4A26F7-E03D-4299-B568-FBD4039A38EB}"/>
   </bookViews>
   <sheets>
     <sheet name="match_2648.csv" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="382">
   <si>
     <t>Source.Name</t>
   </si>
@@ -117,11 +117,6 @@
   </si>
   <si>
     <t>This service is only available to users over a certain ageThis service is only available to users over a certain age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low match score for point 4946
-Low match score for point 7303
-</t>
   </si>
   <si>
     <t>The Company reserves the right to update these Terms, which we may do for reasons that include, but are not limited to, complying with changes to the law or reflecting enhancements to Discord.</t>
@@ -134,10 +129,6 @@
 The Company reserves the right to update these Terms, which we may do for reasons that include, but are not limited to, complying with changes to the law or reflecting enhancements to Discord.
 If the changes affect your usage of Discord or your legal rights, we’ll notify you no less than seven days before the changes take effect.
         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Many sentences match for point 7302
-</t>
   </si>
   <si>
     <t>If the changes affect your usage of Discord or your legal rights, we’ll notify you no less than seven days before the changes take effect.</t>
@@ -174,10 +165,6 @@
     <t>Critical changes to the terms are made without user involvement</t>
   </si>
   <si>
-    <t xml:space="preserve">Low match score for point 4511
-</t>
-  </si>
-  <si>
     <t>If you object to the changes, your recourse shall be to cease using the Service.RIGHTS TO USE THE SERVICE The Service provides a chat and social platform.</t>
   </si>
   <si>
@@ -219,25 +206,10 @@
     <t>10869,5879</t>
   </si>
   <si>
-    <t xml:space="preserve">The Company reserves the right to modify or discontinue, temporarily or permanently, the Service (or any part thereof) with or without notice.
-The Company reserves the right to modify or discontinue, temporarily or permanently, the Service (or any part thereof) with or without notice.
-The Company reserves the right to refuse any user access to the Services without notice for any reason, including but not limited to a violation of the Terms.
-        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Many sentences match for point 5879
-</t>
-  </si>
-  <si>
     <t>The Company reserves the right to refuse any user access to the Services without notice for any reason, including but not limited to a violation of the Terms.</t>
   </si>
   <si>
     <t>5879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Company reserves the right to modify or discontinue, temporarily or permanently, the Service (or any part thereof) with or without notice.
-The Company reserves the right to refuse any user access to the Services without notice for any reason, including but not limited to a violation of the Terms.
-        </t>
   </si>
   <si>
     <t>100</t>
@@ -340,17 +312,6 @@
     <t>10878</t>
   </si>
   <si>
-    <t xml:space="preserve">You may use the Service to send messages to other users of the Service.
-You agree that your use of the Service will not include sending unsolicited marketing messages or broadcasts (i.e., spam).
-We may utilize a variety of means to block spammers and abusers from using the Service.
-If you believe spam originated from the Service, please email us immediately at support@discord.com.
-        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Many sentences match for point 10878
-</t>
-  </si>
-  <si>
     <t>You agree that your use of the Service will not include sending unsolicited marketing messages or broadcasts (i.e., spam).</t>
   </si>
   <si>
@@ -364,16 +325,6 @@
   </si>
   <si>
     <t>10879</t>
-  </si>
-  <si>
-    <t>You acknowledge and agree that you shall not acquire any ownership rights whatsoever by downloading Service Materials or by purchasing any Virtual Currency or Virtual Goods (each as defined below).
-You agree that you shall not modify, copy, distribute, frame, reproduce, republish, download, scrape, display, post, transmit, or sell in any form or by any means, in whole or in part, or otherwise exploit the Service Materials without our express prior written permission.
-You acknowledge that you do not acquire any ownership rights by using the Service or by accessing any Service Materials posted on the Service by the Company, or any derivative works thereof.
-All rights not expressly granted by these Terms are reserved by the Company and its licensors, and no license is granted hereunder by estoppel, implication or otherwise.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Many sentences match for point 10879
-</t>
   </si>
   <si>
     <t>You agree that you shall not modify, copy, distribute, frame, reproduce, republish, download, scrape, display, post, transmit, or sell in any form or by any means, in whole or in part, or otherwise exploit the Service Materials without our express prior written permission.</t>
@@ -619,17 +570,6 @@
     <t>11429</t>
   </si>
   <si>
-    <t xml:space="preserve">If you believe that your work has been copied in a way that constitutes copyright infringement, or that your intellectual property rights have been otherwise violated, you should notify the Company of your infringement claim in accordance with the procedure set forth below.
-The Company will process and investigate notices of alleged infringement and will take appropriate actions under the Digital Millennium Copyright Act (“DMCA”) and other applicable intellectual property laws with respect to any alleged or actual infringement.
-A notification of claimed copyright infringement should be emailed to the Company’s Copyright Agent at copyright@discord.com (Subject line: “DMCA Takedown Request”).
-You may also contact us by mail at: Discord, Attention: DMCA Takedown Request, 444 De Haro Street #200, San Francisco, CA 94107.
-        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Many sentences match for point 11429
-</t>
-  </si>
-  <si>
     <t>The Company will process and investigate notices of alleged infringement and will take appropriate actions under the Digital Millennium Copyright Act (“DMCA”) and other applicable intellectual property laws with respect to any alleged or actual infringement.</t>
   </si>
   <si>
@@ -683,15 +623,6 @@
   </si>
   <si>
     <t>9700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Company may terminate your Account and your access to the Service (or, at the Company's sole option, applicable portions of the Service) at any time and for any reason.
-The Company is not required to provide you with any notice or warning prior to any such termination.
-        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Many sentences match for point 9700
-</t>
   </si>
   <si>
     <t>The Company is not required to provide you with any notice or warning prior to any such termination.</t>
@@ -783,23 +714,6 @@
     <t>11436,9712</t>
   </si>
   <si>
-    <t xml:space="preserve">You agree to indemnify and hold the Company, harmless from and against any loss, liability, claim, demand, damages, costs and expenses, including reasonable attorney's fees, arising out of or in connection with (i) your use of and access to the Service.
-(ii) your violation of any term of these Terms.
-(iii) your violation of any third party right, including without limitation any copyright, property, or privacy right or any third party agreement.
-or (iv) any of Your Content or information in your Account or any other information you post or share on or through the Service.
-You agree to indemnify and hold the Company, harmless from and against any loss, liability, claim, demand, damages, costs and expenses, including reasonable attorney's fees, arising out of or in connection with (i) your use of and access to the Service.
-(ii) your violation of any term of these Terms.
-(iii) your violation of any third party right, including without limitation any copyright, property, or privacy right or any third party agreement.
-or (iv) any of Your Content or information in your Account or any other information you post or share on or through the Service.
-As used in this section, "you" shall include anyone accessing the Service using your password
-        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Many sentences match for point 11436
-Many sentences match for point 9712
-</t>
-  </si>
-  <si>
     <t>(iii) your violation of any third party right, including without limitation any copyright, property, or privacy right or any third party agreement.</t>
   </si>
   <si>
@@ -855,15 +769,6 @@
   </si>
   <si>
     <t>11437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We try to make the Service thorough, accurate, and helpful to our customers.
-Nonetheless, there may be times when certain information contained on the Service may be incorrect, incomplete, or inaccurate, or appear inaccurate because of the browser, hardware, software, or other technology that you use.
-        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Many sentences match for point 11437
-</t>
   </si>
   <si>
     <t>Nonetheless, there may be times when certain information contained on the Service may be incorrect, incomplete, or inaccurate, or appear inaccurate because of the browser, hardware, software, or other technology that you use.</t>
@@ -960,14 +865,6 @@
     <t>11439</t>
   </si>
   <si>
-    <t>By purchasing a Nitro subscription, you authorize us to charge your Payment Method on a recurring (e.g., monthly or yearly) basis for the applicable Nitro subscription charge, any and all taxes or possible transaction fees, and any other charges incurred in connection with your use of the Nitro subscription service.
-Your payment to Discord will automatically renew at the end of your applicable subscription period, unless you cancel your subscription before the end of the current subscription period.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Many sentences match for point 11439
-</t>
-  </si>
-  <si>
     <t>Your payment to Discord will automatically renew at the end of your applicable subscription period, unless you cancel your subscription before the end of the current subscription period.</t>
   </si>
   <si>
@@ -1007,13 +904,6 @@
     <t>7306</t>
   </si>
   <si>
-    <t>DISPUTE RESOLUTION THIS SECTION AND THE NEXT SECTION ONLY APPLIES TO YOU IF YOU ARE A UNITED STATES RESIDENT.  PLEASE READ THIS SECTION CAREFULLY - IT MAY SIGNIFICANTLY AFFECT YOUR LEGAL RIGHTS, INCLUDING YOUR RIGHT TO FILE A LAWSUIT IN COURT.  You and Discord agree that these Terms affect interstate commerce and that the Federal Arbitration Act governs the interpretation and enforcement of these arbitration provisions.  Most disputes can be resolved without resorting to arbitration. In the event of a dispute, you agree to provide us notice of the dispute. This notice must provide a brief, written description of the dispute, the relief requested and the contact information of the party giving it. You must send any such notice to Discord by email to disputes@discord.com and by U.S. Mail to Discord Inc., 444 De Haro Street #200, San Francisco, CA 94107.  The parties agree to use their best efforts to settle any dispute, claim, question, or disagreement directly through consultation with one another, and good faith negotiations shall be a condition to either party initiating a lawsuit or arbitration.  Notwithstanding the foregoing, disputes concerning patents, copyrights, moral rights, trademarks, and trade secrets and claims of piracy or unauthorized use of the Site shall not be subject to arbitration, and the notice and good faith negotiation required by this paragraph shall not apply to these types of disputes.  Binding Arbitration. Except as provided herein, if we cannot resolve a dispute informally, any dispute will be resolved only by binding arbitration to be held in the U.S. state in which you reside. For residents outside the United States, arbitration shall be initiated in San Francisco, California. Discord and you further agree to submit to the personal jurisdiction of any state or federal court in San Francisco, California to compel arbitration, stay proceedings pending arbitration, or to confirm, modify, vacate, or enter judgment on the award entered by the arbitrator.  The arbitration shall be conducted by a single arbitrator, governed by the rules of JAMS that are in effect at the time the arbitration is initiated (referred to as the “JAMS Rules”) and under the rules set forth in these Terms. If there is a conflict between the JAMS Rules and the rules set forth in these Terms, the rules set forth in these Terms will govern. ARBITRATION MEANS THAT YOU WAIVE YOUR RIGHT TO A JURY TRIAL. You may, in arbitration, seek any and all remedies otherwise available to you pursuant to your state’s law.  To the extent the filing fee for the arbitration exceeds the cost of filing a lawsuit, Discord will pay the additional cost. Discord shall also bear the cost of any arbitration fees, unless the arbitrator finds your claims, defenses, or other fee-generating activity to be asserted or conducted for an improper purpose or frivolous. You are responsible for all other additional costs that you may incur in the arbitration including, without limitation, attorney’s fees and expert witness costs unless Discord is specifically required to pay such fees under applicable law. The decision of the arbitrator will be in writing and binding and conclusive on Discord and you, and judgment to enforce the decision may be entered by any court of competent jurisdiction. Discord and you agree that dispositive motions, including without limitation motions to dismiss and motions for summary judgment, will be allowed in the arbitration. The arbitrator must follow these Terms of Service and can award the same damages and relief as a court, including injunctive or other equitable relief and attorney’s fees. Discord and you understand that, absent this mandatory arbitration provision, Discord and you would have the right to sue in court and have a jury trial. Discord and you further understand that, in some instances, the costs of arbitration could exceed the costs of litigation and that the right to discovery may be more limited in arbitration than in court.  If Discord’s or your claim is solely for monetary relief of $10,000 or less and does not include a request for any type of equitable remedy, the party bringing the claim may choose whether the arbitration of the claim will be conducted, through a telephonic hearing, or by an in-person hearing under the JAMS Rules, solely based on documents submitted to the arbitrator.  You or Discord may choose to pursue a claim in small claims court where jurisdiction and venue over you and Discord otherwise qualifies for such small claims court and where the claim does not include a request for any type of equitable relief. However, if you decide to pursue a claim in small claims court, you agree to still provide Discord with advance notice by email to disputes@discord.com and by U.S. Mail to Discord Inc., 444 De Haro Street #200, San Francisco, CA 94107.  Opt-Out Right. You have the right to opt out and not be bound by the provisions requiring arbitration by sending written notice of your decision to opt out to Discord by email to arbitration-opt-out@discord.com. The notice must be sent within 90 days of this Terms of Service taking effect, or your account creation on the Service. If you do not opt out via this method, you will be bound to arbitrate disputes in accordance with the terms of these paragraphs. If you opt out of the provisions requiring arbitration, Discord will not be bound by them either. If any clause within this Arbitration Section is found to be illegal or unenforceable, that specific clause will be severed from this section, and the remainder of its provisions will be given full force and effect.  Survival. This Arbitration section shall survive any termination of your account or the Service.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Many sentences match for point 7306
-</t>
-  </si>
-  <si>
     <t>You and Discord agree that these Terms affect interstate commerce and that the Federal Arbitration Act governs the interpretation and enforcement of these arbitration provisions.</t>
   </si>
   <si>
@@ -1044,35 +934,12 @@
     <t>11441,4812,7306</t>
   </si>
   <si>
-    <t>Except as provided herein, if we cannot resolve a dispute informally, any dispute will be resolved only by binding arbitration to be held in the U.S.
-state in which you reside.
-For residents outside the United States, arbitration shall be initiated in San Francisco, California.
-Except as provided herein, if we cannot resolve a dispute informally, any dispute will be resolved only by binding arbitration to be held in the U.S.
-state in which you reside.
-For residents outside the United States, arbitration shall be initiated in San Francisco, California.
-Discord and you further agree to submit to the personal jurisdiction of any state or federal court in San Francisco, California to compel arbitration, stay proceedings pending arbitration, or to confirm, modify, vacate, or enter judgment on the award entered by the arbitrator.
-DISPUTE RESOLUTION THIS SECTION AND THE NEXT SECTION ONLY APPLIES TO YOU IF YOU ARE A UNITED STATES RESIDENT.  PLEASE READ THIS SECTION CAREFULLY - IT MAY SIGNIFICANTLY AFFECT YOUR LEGAL RIGHTS, INCLUDING YOUR RIGHT TO FILE A LAWSUIT IN COURT.  You and Discord agree that these Terms affect interstate commerce and that the Federal Arbitration Act governs the interpretation and enforcement of these arbitration provisions.  Most disputes can be resolved without resorting to arbitration. In the event of a dispute, you agree to provide us notice of the dispute. This notice must provide a brief, written description of the dispute, the relief requested and the contact information of the party giving it. You must send any such notice to Discord by email to disputes@discord.com and by U.S. Mail to Discord Inc., 444 De Haro Street #200, San Francisco, CA 94107.  The parties agree to use their best efforts to settle any dispute, claim, question, or disagreement directly through consultation with one another, and good faith negotiations shall be a condition to either party initiating a lawsuit or arbitration.  Notwithstanding the foregoing, disputes concerning patents, copyrights, moral rights, trademarks, and trade secrets and claims of piracy or unauthorized use of the Site shall not be subject to arbitration, and the notice and good faith negotiation required by this paragraph shall not apply to these types of disputes.  Binding Arbitration. Except as provided herein, if we cannot resolve a dispute informally, any dispute will be resolved only by binding arbitration to be held in the U.S. state in which you reside. For residents outside the United States, arbitration shall be initiated in San Francisco, California. Discord and you further agree to submit to the personal jurisdiction of any state or federal court in San Francisco, California to compel arbitration, stay proceedings pending arbitration, or to confirm, modify, vacate, or enter judgment on the award entered by the arbitrator.  The arbitration shall be conducted by a single arbitrator, governed by the rules of JAMS that are in effect at the time the arbitration is initiated (referred to as the “JAMS Rules”) and under the rules set forth in these Terms. If there is a conflict between the JAMS Rules and the rules set forth in these Terms, the rules set forth in these Terms will govern. ARBITRATION MEANS THAT YOU WAIVE YOUR RIGHT TO A JURY TRIAL. You may, in arbitration, seek any and all remedies otherwise available to you pursuant to your state’s law.  To the extent the filing fee for the arbitration exceeds the cost of filing a lawsuit, Discord will pay the additional cost. Discord shall also bear the cost of any arbitration fees, unless the arbitrator finds your claims, defenses, or other fee-generating activity to be asserted or conducted for an improper purpose or frivolous. You are responsible for all other additional costs that you may incur in the arbitration including, without limitation, attorney’s fees and expert witness costs unless Discord is specifically required to pay such fees under applicable law. The decision of the arbitrator will be in writing and binding and conclusive on Discord and you, and judgment to enforce the decision may be entered by any court of competent jurisdiction. Discord and you agree that dispositive motions, including without limitation motions to dismiss and motions for summary judgment, will be allowed in the arbitration. The arbitrator must follow these Terms of Service and can award the same damages and relief as a court, including injunctive or other equitable relief and attorney’s fees. Discord and you understand that, absent this mandatory arbitration provision, Discord and you would have the right to sue in court and have a jury trial. Discord and you further understand that, in some instances, the costs of arbitration could exceed the costs of litigation and that the right to discovery may be more limited in arbitration than in court.  If Discord’s or your claim is solely for monetary relief of $10,000 or less and does not include a request for any type of equitable remedy, the party bringing the claim may choose whether the arbitration of the claim will be conducted, through a telephonic hearing, or by an in-person hearing under the JAMS Rules, solely based on documents submitted to the arbitrator.  You or Discord may choose to pursue a claim in small claims court where jurisdiction and venue over you and Discord otherwise qualifies for such small claims court and where the claim does not include a request for any type of equitable relief. However, if you decide to pursue a claim in small claims court, you agree to still provide Discord with advance notice by email to disputes@discord.com and by U.S. Mail to Discord Inc., 444 De Haro Street #200, San Francisco, CA 94107.  Opt-Out Right. You have the right to opt out and not be bound by the provisions requiring arbitration by sending written notice of your decision to opt out to Discord by email to arbitration-opt-out@discord.com. The notice must be sent within 90 days of this Terms of Service taking effect, or your account creation on the Service. If you do not opt out via this method, you will be bound to arbitrate disputes in accordance with the terms of these paragraphs. If you opt out of the provisions requiring arbitration, Discord will not be bound by them either. If any clause within this Arbitration Section is found to be illegal or unenforceable, that specific clause will be severed from this section, and the remainder of its provisions will be given full force and effect.  Survival. This Arbitration section shall survive any termination of your account or the Service.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Many sentences match for point 4812
-Many sentences match for point 7306
-</t>
-  </si>
-  <si>
     <t>Discord and you further agree to submit to the personal jurisdiction of any state or federal court in San Francisco, California to compel arbitration, stay proceedings pending arbitration, or to confirm, modify, vacate, or enter judgment on the award entered by the arbitrator.</t>
   </si>
   <si>
     <t>11443,4812,7306</t>
   </si>
   <si>
-    <t>Discord and you further agree to submit to the personal jurisdiction of any state or federal court in San Francisco, California to compel arbitration, stay proceedings pending arbitration, or to confirm, modify, vacate, or enter judgment on the award entered by the arbitrator.
-Except as provided herein, if we cannot resolve a dispute informally, any dispute will be resolved only by binding arbitration to be held in the U.S.
-state in which you reside.
-For residents outside the United States, arbitration shall be initiated in San Francisco, California.
-Discord and you further agree to submit to the personal jurisdiction of any state or federal court in San Francisco, California to compel arbitration, stay proceedings pending arbitration, or to confirm, modify, vacate, or enter judgment on the award entered by the arbitrator.
-DISPUTE RESOLUTION THIS SECTION AND THE NEXT SECTION ONLY APPLIES TO YOU IF YOU ARE A UNITED STATES RESIDENT.  PLEASE READ THIS SECTION CAREFULLY - IT MAY SIGNIFICANTLY AFFECT YOUR LEGAL RIGHTS, INCLUDING YOUR RIGHT TO FILE A LAWSUIT IN COURT.  You and Discord agree that these Terms affect interstate commerce and that the Federal Arbitration Act governs the interpretation and enforcement of these arbitration provisions.  Most disputes can be resolved without resorting to arbitration. In the event of a dispute, you agree to provide us notice of the dispute. This notice must provide a brief, written description of the dispute, the relief requested and the contact information of the party giving it. You must send any such notice to Discord by email to disputes@discord.com and by U.S. Mail to Discord Inc., 444 De Haro Street #200, San Francisco, CA 94107.  The parties agree to use their best efforts to settle any dispute, claim, question, or disagreement directly through consultation with one another, and good faith negotiations shall be a condition to either party initiating a lawsuit or arbitration.  Notwithstanding the foregoing, disputes concerning patents, copyrights, moral rights, trademarks, and trade secrets and claims of piracy or unauthorized use of the Site shall not be subject to arbitration, and the notice and good faith negotiation required by this paragraph shall not apply to these types of disputes.  Binding Arbitration. Except as provided herein, if we cannot resolve a dispute informally, any dispute will be resolved only by binding arbitration to be held in the U.S. state in which you reside. For residents outside the United States, arbitration shall be initiated in San Francisco, California. Discord and you further agree to submit to the personal jurisdiction of any state or federal court in San Francisco, California to compel arbitration, stay proceedings pending arbitration, or to confirm, modify, vacate, or enter judgment on the award entered by the arbitrator.  The arbitration shall be conducted by a single arbitrator, governed by the rules of JAMS that are in effect at the time the arbitration is initiated (referred to as the “JAMS Rules”) and under the rules set forth in these Terms. If there is a conflict between the JAMS Rules and the rules set forth in these Terms, the rules set forth in these Terms will govern. ARBITRATION MEANS THAT YOU WAIVE YOUR RIGHT TO A JURY TRIAL. You may, in arbitration, seek any and all remedies otherwise available to you pursuant to your state’s law.  To the extent the filing fee for the arbitration exceeds the cost of filing a lawsuit, Discord will pay the additional cost. Discord shall also bear the cost of any arbitration fees, unless the arbitrator finds your claims, defenses, or other fee-generating activity to be asserted or conducted for an improper purpose or frivolous. You are responsible for all other additional costs that you may incur in the arbitration including, without limitation, attorney’s fees and expert witness costs unless Discord is specifically required to pay such fees under applicable law. The decision of the arbitrator will be in writing and binding and conclusive on Discord and you, and judgment to enforce the decision may be entered by any court of competent jurisdiction. Discord and you agree that dispositive motions, including without limitation motions to dismiss and motions for summary judgment, will be allowed in the arbitration. The arbitrator must follow these Terms of Service and can award the same damages and relief as a court, including injunctive or other equitable relief and attorney’s fees. Discord and you understand that, absent this mandatory arbitration provision, Discord and you would have the right to sue in court and have a jury trial. Discord and you further understand that, in some instances, the costs of arbitration could exceed the costs of litigation and that the right to discovery may be more limited in arbitration than in court.  If Discord’s or your claim is solely for monetary relief of $10,000 or less and does not include a request for any type of equitable remedy, the party bringing the claim may choose whether the arbitration of the claim will be conducted, through a telephonic hearing, or by an in-person hearing under the JAMS Rules, solely based on documents submitted to the arbitrator.  You or Discord may choose to pursue a claim in small claims court where jurisdiction and venue over you and Discord otherwise qualifies for such small claims court and where the claim does not include a request for any type of equitable relief. However, if you decide to pursue a claim in small claims court, you agree to still provide Discord with advance notice by email to disputes@discord.com and by U.S. Mail to Discord Inc., 444 De Haro Street #200, San Francisco, CA 94107.  Opt-Out Right. You have the right to opt out and not be bound by the provisions requiring arbitration by sending written notice of your decision to opt out to Discord by email to arbitration-opt-out@discord.com. The notice must be sent within 90 days of this Terms of Service taking effect, or your account creation on the Service. If you do not opt out via this method, you will be bound to arbitrate disputes in accordance with the terms of these paragraphs. If you opt out of the provisions requiring arbitration, Discord will not be bound by them either. If any clause within this Arbitration Section is found to be illegal or unenforceable, that specific clause will be severed from this section, and the remainder of its provisions will be given full force and effect.  Survival. This Arbitration section shall survive any termination of your account or the Service.</t>
-  </si>
-  <si>
     <t>The arbitration shall be conducted by a single arbitrator, governed by the rules of JAMS that are in effect at the time the arbitration is initiated (referred to as the “JAMS Rules”) and under the rules set forth in these Terms.</t>
   </si>
   <si>
@@ -1142,15 +1009,6 @@
     <t>11445,7305</t>
   </si>
   <si>
-    <t>CLASS WAIVER THIS SECTION AND THE PREVIOUS SECTION ONLY APPLIES TO YOU IF YOU ARE A UNITED STATES RESIDENT.  PLEASE READ THIS SECTION CAREFULLY. IT MAY SIGNIFICANTLY AFFECT YOUR LEGAL RIGHTS.  Discord and you agree to resolve any dispute in an individual capacity, and not on behalf of, or as part of, any purported class, consolidated, or representative proceeding.  The arbitrator cannot combine more than one person’s or entity’s claims into a single case, and cannot preside over any consolidated, class or representative proceeding (unless we agree otherwise). And, the arbitrator’s decision or award in one person’s or entity’s case can only impact the person or entity that brought the claim, not other Discord customers, and cannot be used to decide other disputes with other customers.
-CLASS WAIVER THIS SECTION AND THE PREVIOUS SECTION ONLY APPLIES TO YOU IF YOU ARE A UNITED STATES RESIDENT.  PLEASE READ THIS SECTION CAREFULLY. IT MAY SIGNIFICANTLY AFFECT YOUR LEGAL RIGHTS.  Discord and you agree to resolve any dispute in an individual capacity, and not on behalf of, or as part of, any purported class, consolidated, or representative proceeding.  The arbitrator cannot combine more than one person’s or entity’s claims into a single case, and cannot preside over any consolidated, class or representative proceeding (unless we agree otherwise). And, the arbitrator’s decision or award in one person’s or entity’s case can only impact the person or entity that brought the claim, not other Discord customers, and cannot be used to decide other disputes with other customers.  If any court or arbitrator determines that the class/consolidated/representative action waiver set forth in this section is void or unenforceable for any reason or that arbitration can proceed on a class, consolidated, or representative basis, then the disputes, claims, or controversies will not be subject to arbitration and must be litigated in federal court located in San Francisco, California.  This Class Action Waiver section shall survive any termination of your account or the Services.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Many sentences match for point 11445
-Many sentences match for point 7305
-</t>
-  </si>
-  <si>
     <t>IT MAY SIGNIFICANTLY AFFECT YOUR LEGAL RIGHTS.</t>
   </si>
   <si>
@@ -1167,13 +1025,6 @@
   </si>
   <si>
     <t>7305</t>
-  </si>
-  <si>
-    <t>CLASS WAIVER THIS SECTION AND THE PREVIOUS SECTION ONLY APPLIES TO YOU IF YOU ARE A UNITED STATES RESIDENT.  PLEASE READ THIS SECTION CAREFULLY. IT MAY SIGNIFICANTLY AFFECT YOUR LEGAL RIGHTS.  Discord and you agree to resolve any dispute in an individual capacity, and not on behalf of, or as part of, any purported class, consolidated, or representative proceeding.  The arbitrator cannot combine more than one person’s or entity’s claims into a single case, and cannot preside over any consolidated, class or representative proceeding (unless we agree otherwise). And, the arbitrator’s decision or award in one person’s or entity’s case can only impact the person or entity that brought the claim, not other Discord customers, and cannot be used to decide other disputes with other customers.  If any court or arbitrator determines that the class/consolidated/representative action waiver set forth in this section is void or unenforceable for any reason or that arbitration can proceed on a class, consolidated, or representative basis, then the disputes, claims, or controversies will not be subject to arbitration and must be litigated in federal court located in San Francisco, California.  This Class Action Waiver section shall survive any termination of your account or the Services.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Many sentences match for point 7305
-</t>
   </si>
   <si>
     <t>This Class Action Waiver section shall survive any termination of your account or the Services.INTERNATIONAL USE.</t>
@@ -1327,6 +1178,89 @@
   </si>
   <si>
     <t>Discord is made possible through the work of other open source software.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Company reserves the right to modify or discontinue, temporarily or permanently, the Service (or any part thereof) with or without notice.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Company reserves the right to refuse any user access to the Services without notice for any reason, including but not limited to a violation of the Terms.
+        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You may use the Service to send messages to other users of the Service.
+        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You agree that your use of the Service will not include sending unsolicited marketing messages or broadcasts (i.e., spam).
+        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We may utilize a variety of means to block spammers and abusers from using the Service.
+        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You agree that you shall not modify, copy, distribute, frame, reproduce, republish, download, scrape, display, post, transmit, or sell in any form or by any means, in whole or in part, or otherwise exploit the Service Materials without our express prior written permission.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You acknowledge that you do not acquire any ownership rights by using the Service or by accessing any Service Materials posted on the Service by the Company, or any derivative works thereof.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you believe that your work has been copied in a way that constitutes copyright infringement, or that your intellectual property rights have been otherwise violated, you should notify the Company of your infringement claim in accordance with the procedure set forth below.
+        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Company will process and investigate notices of alleged infringement and will take appropriate actions under the Digital Millennium Copyright Act (“DMCA”) and other applicable intellectual property laws with respect to any alleged or actual infringement.        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A notification of claimed copyright infringement should be emailed to the Company’s Copyright Agent at copyright@discord.com (Subject line: “DMCA Takedown Request”).
+        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You may also contact us by mail at: Discord, Attention: DMCA Takedown Request, 444 De Haro Street #200, San Francisco, CA 94107.
+        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Company may terminate your Account and your access to the Service (or, at the Company's sole option, applicable portions of the Service) at any time and for any reason.
+        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Company is not required to provide you with any notice or warning prior to any such termination.
+        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(ii) your violation of any term of these Terms.
+        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(iii) your violation of any third party right, including without limitation any copyright, property, or privacy right or any third party agreement.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">or (iv) any of Your Content or information in your Account or any other information you post or share on or through the Service.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We try to make the Service thorough, accurate, and helpful to our customers.
+        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nonetheless, there may be times when certain information contained on the Service may be incorrect, incomplete, or inaccurate, or appear inaccurate because of the browser, hardware, software, or other technology that you use.
+        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">By purchasing a Nitro subscription, you authorize us to charge your Payment Method on a recurring (e.g., monthly or yearly) basis for the applicable Nitro subscription charge, any and all taxes or possible transaction fees, and any other charges incurred in connection with your use of the Nitro subscription service.
+</t>
   </si>
 </sst>
 </file>
@@ -1403,7 +1337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1411,6 +1345,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1727,8 +1668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA6949D-D0CA-4B4C-AC51-92ED0A3A72FC}">
   <dimension ref="A1:G222"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G222"/>
+    <sheetView tabSelected="1" topLeftCell="E162" workbookViewId="0">
+      <selection activeCell="G181" sqref="G181:G186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1898,22 +1839,20 @@
       <c r="F7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>11</v>
@@ -1921,31 +1860,29 @@
       <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" ht="28.8">
+      <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="F9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>30</v>
+      <c r="G9" s="7" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1953,30 +1890,28 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>12</v>
@@ -1999,7 +1934,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>12</v>
@@ -2022,7 +1957,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>12</v>
@@ -2045,7 +1980,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>12</v>
@@ -2068,7 +2003,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>12</v>
@@ -2091,19 +2026,19 @@
         <v>7</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>12</v>
@@ -2114,7 +2049,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>12</v>
@@ -2132,18 +2067,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="43.2">
       <c r="A18" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>362</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>11</v>
@@ -2151,31 +2086,29 @@
       <c r="F18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" ht="43.2">
       <c r="A19" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>363</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>55</v>
+      <c r="G19" s="7" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2183,16 +2116,16 @@
         <v>7</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>12</v>
@@ -2206,19 +2139,19 @@
         <v>7</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>12</v>
@@ -2229,7 +2162,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>12</v>
@@ -2252,7 +2185,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>12</v>
@@ -2275,16 +2208,16 @@
         <v>7</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>12</v>
@@ -2298,13 +2231,13 @@
         <v>7</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>11</v>
@@ -2321,7 +2254,7 @@
         <v>7</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>12</v>
@@ -2344,7 +2277,7 @@
         <v>7</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>12</v>
@@ -2367,7 +2300,7 @@
         <v>7</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>12</v>
@@ -2390,7 +2323,7 @@
         <v>7</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>12</v>
@@ -2413,16 +2346,16 @@
         <v>7</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>12</v>
@@ -2436,7 +2369,7 @@
         <v>7</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>12</v>
@@ -2459,16 +2392,16 @@
         <v>7</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>12</v>
@@ -2482,7 +2415,7 @@
         <v>7</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>12</v>
@@ -2500,73 +2433,69 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" ht="43.2">
       <c r="A34" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>364</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" ht="43.2">
       <c r="A35" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>90</v>
+        <v>83</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>365</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G35" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" ht="28.8">
       <c r="A36" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>366</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>91</v>
+      <c r="G36" s="8" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2574,7 +2503,7 @@
         <v>7</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>12</v>
@@ -2592,73 +2521,71 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" ht="28.8">
       <c r="A38" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="G38" s="8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="57.6">
       <c r="A39" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>97</v>
+        <v>88</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>367</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="1:7" ht="57.6">
       <c r="A40" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>97</v>
+        <v>88</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>368</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>98</v>
+      <c r="G40" s="8" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2666,19 +2593,19 @@
         <v>7</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>12</v>
@@ -2689,7 +2616,7 @@
         <v>7</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>12</v>
@@ -2712,19 +2639,19 @@
         <v>7</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>12</v>
@@ -2735,7 +2662,7 @@
         <v>7</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>12</v>
@@ -2758,7 +2685,7 @@
         <v>7</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>12</v>
@@ -2781,7 +2708,7 @@
         <v>7</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>12</v>
@@ -2804,16 +2731,16 @@
         <v>7</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>12</v>
@@ -2827,7 +2754,7 @@
         <v>7</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>12</v>
@@ -2850,7 +2777,7 @@
         <v>7</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>12</v>
@@ -2873,16 +2800,16 @@
         <v>7</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>12</v>
@@ -2896,16 +2823,16 @@
         <v>7</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>12</v>
@@ -2919,7 +2846,7 @@
         <v>7</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>12</v>
@@ -2942,7 +2869,7 @@
         <v>7</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>12</v>
@@ -2965,7 +2892,7 @@
         <v>7</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>12</v>
@@ -2988,13 +2915,13 @@
         <v>7</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>11</v>
@@ -3011,7 +2938,7 @@
         <v>7</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>12</v>
@@ -3034,7 +2961,7 @@
         <v>7</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>12</v>
@@ -3057,7 +2984,7 @@
         <v>7</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>12</v>
@@ -3080,7 +3007,7 @@
         <v>7</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>12</v>
@@ -3103,7 +3030,7 @@
         <v>7</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>12</v>
@@ -3126,19 +3053,19 @@
         <v>7</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>12</v>
@@ -3149,13 +3076,13 @@
         <v>7</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>11</v>
@@ -3172,19 +3099,19 @@
         <v>7</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>12</v>
@@ -3195,7 +3122,7 @@
         <v>7</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>12</v>
@@ -3218,7 +3145,7 @@
         <v>7</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>12</v>
@@ -3241,16 +3168,16 @@
         <v>7</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>12</v>
@@ -3264,7 +3191,7 @@
         <v>7</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>12</v>
@@ -3287,16 +3214,16 @@
         <v>7</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>12</v>
@@ -3310,19 +3237,19 @@
         <v>7</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>12</v>
@@ -3333,16 +3260,16 @@
         <v>7</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>12</v>
@@ -3356,19 +3283,19 @@
         <v>7</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>12</v>
@@ -3379,7 +3306,7 @@
         <v>7</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>12</v>
@@ -3397,104 +3324,98 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" ht="72">
       <c r="A73" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>173</v>
+        <v>162</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>369</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G73" s="6" t="s">
-        <v>174</v>
-      </c>
+      <c r="G73" s="6"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>173</v>
+        <v>370</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G74" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="G74" s="4"/>
+    </row>
+    <row r="75" spans="1:7" ht="57.6">
       <c r="A75" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>173</v>
+        <v>162</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>371</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G75" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="G75" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="43.2">
       <c r="A76" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>173</v>
+        <v>162</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>373</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G76" s="4" t="s">
-        <v>174</v>
-      </c>
+      <c r="G76" s="4"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>12</v>
@@ -3517,7 +3438,7 @@
         <v>7</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>12</v>
@@ -3540,16 +3461,16 @@
         <v>7</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>12</v>
@@ -3563,7 +3484,7 @@
         <v>7</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>12</v>
@@ -3586,7 +3507,7 @@
         <v>7</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>12</v>
@@ -3609,7 +3530,7 @@
         <v>7</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>12</v>
@@ -3632,7 +3553,7 @@
         <v>7</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>12</v>
@@ -3655,88 +3576,86 @@
         <v>7</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" ht="43.2">
       <c r="A85" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>193</v>
+        <v>180</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>374</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F85" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G85" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="G85" s="7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="43.2">
       <c r="A86" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>193</v>
+        <v>180</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>375</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G86" s="4" t="s">
-        <v>194</v>
-      </c>
+      <c r="G86" s="4"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="G87" s="6" t="s">
         <v>12</v>
@@ -3747,16 +3666,16 @@
         <v>7</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>12</v>
@@ -3770,19 +3689,19 @@
         <v>7</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>12</v>
@@ -3793,19 +3712,19 @@
         <v>7</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>12</v>
@@ -3816,7 +3735,7 @@
         <v>7</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>12</v>
@@ -3839,7 +3758,7 @@
         <v>7</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>12</v>
@@ -3862,7 +3781,7 @@
         <v>7</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>12</v>
@@ -3885,59 +3804,59 @@
         <v>7</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" ht="43.2">
       <c r="A95" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>11</v>
+        <v>207</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="E95" s="9">
+        <v>100100</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G95" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="G95" s="7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="72">
       <c r="A96" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>222</v>
+        <v>207</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>377</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>11</v>
@@ -3945,22 +3864,20 @@
       <c r="F96" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G96" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="G96" s="4"/>
+    </row>
+    <row r="97" spans="1:7" ht="57.6">
       <c r="A97" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>222</v>
+        <v>207</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>378</v>
       </c>
       <c r="E97" s="6" t="s">
         <v>11</v>
@@ -3968,16 +3885,14 @@
       <c r="F97" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G97" s="6" t="s">
-        <v>223</v>
-      </c>
+      <c r="G97" s="6"/>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>12</v>
@@ -4000,7 +3915,7 @@
         <v>7</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>12</v>
@@ -4023,7 +3938,7 @@
         <v>7</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>12</v>
@@ -4046,19 +3961,19 @@
         <v>7</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="G101" s="6" t="s">
         <v>12</v>
@@ -4069,7 +3984,7 @@
         <v>7</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>12</v>
@@ -4092,7 +4007,7 @@
         <v>7</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>12</v>
@@ -4115,7 +4030,7 @@
         <v>7</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>12</v>
@@ -4138,7 +4053,7 @@
         <v>7</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>12</v>
@@ -4161,7 +4076,7 @@
         <v>7</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>12</v>
@@ -4184,7 +4099,7 @@
         <v>7</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>12</v>
@@ -4207,7 +4122,7 @@
         <v>7</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>12</v>
@@ -4225,58 +4140,56 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" ht="43.2">
       <c r="A109" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>243</v>
+        <v>226</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>379</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F109" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G109" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+      <c r="G109" s="7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="57.6">
       <c r="A110" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>243</v>
+        <v>226</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>380</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F110" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G110" s="4" t="s">
-        <v>244</v>
-      </c>
+      <c r="G110" s="4"/>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>12</v>
@@ -4299,7 +4212,7 @@
         <v>7</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>12</v>
@@ -4322,7 +4235,7 @@
         <v>7</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>12</v>
@@ -4345,7 +4258,7 @@
         <v>7</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>12</v>
@@ -4368,7 +4281,7 @@
         <v>7</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>12</v>
@@ -4391,7 +4304,7 @@
         <v>7</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>12</v>
@@ -4414,7 +4327,7 @@
         <v>7</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>12</v>
@@ -4437,7 +4350,7 @@
         <v>7</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>12</v>
@@ -4460,7 +4373,7 @@
         <v>7</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>12</v>
@@ -4483,7 +4396,7 @@
         <v>7</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>12</v>
@@ -4506,7 +4419,7 @@
         <v>7</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>12</v>
@@ -4529,16 +4442,16 @@
         <v>7</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F122" s="4" t="s">
         <v>12</v>
@@ -4552,7 +4465,7 @@
         <v>7</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>12</v>
@@ -4575,7 +4488,7 @@
         <v>7</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>12</v>
@@ -4598,7 +4511,7 @@
         <v>7</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>12</v>
@@ -4621,7 +4534,7 @@
         <v>7</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>12</v>
@@ -4644,7 +4557,7 @@
         <v>7</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>12</v>
@@ -4667,7 +4580,7 @@
         <v>7</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>12</v>
@@ -4690,7 +4603,7 @@
         <v>7</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>12</v>
@@ -4713,7 +4626,7 @@
         <v>7</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>12</v>
@@ -4736,7 +4649,7 @@
         <v>7</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>12</v>
@@ -4759,7 +4672,7 @@
         <v>7</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>12</v>
@@ -4782,7 +4695,7 @@
         <v>7</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>12</v>
@@ -4805,7 +4718,7 @@
         <v>7</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>12</v>
@@ -4828,7 +4741,7 @@
         <v>7</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>12</v>
@@ -4851,7 +4764,7 @@
         <v>7</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>12</v>
@@ -4869,50 +4782,48 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" ht="72">
       <c r="A137" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="D137" s="6" t="s">
-        <v>276</v>
+        <v>257</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>381</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F137" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G137" s="6" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
+      <c r="G137" s="6"/>
+    </row>
+    <row r="138" spans="1:7" ht="28.8">
       <c r="A138" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F138" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G138" s="4" t="s">
-        <v>277</v>
+      <c r="G138" s="8" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4920,7 +4831,7 @@
         <v>7</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>12</v>
@@ -4943,7 +4854,7 @@
         <v>7</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>12</v>
@@ -4966,7 +4877,7 @@
         <v>7</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>12</v>
@@ -4989,7 +4900,7 @@
         <v>7</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>12</v>
@@ -5012,7 +4923,7 @@
         <v>7</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>12</v>
@@ -5035,7 +4946,7 @@
         <v>7</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>12</v>
@@ -5058,7 +4969,7 @@
         <v>7</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>12</v>
@@ -5081,7 +4992,7 @@
         <v>7</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>12</v>
@@ -5104,7 +5015,7 @@
         <v>7</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>12</v>
@@ -5127,7 +5038,7 @@
         <v>7</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>12</v>
@@ -5150,490 +5061,448 @@
         <v>7</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F149" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G149" s="6" t="s">
-        <v>292</v>
-      </c>
+      <c r="G149" s="6"/>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F150" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G150" s="4" t="s">
-        <v>292</v>
-      </c>
+      <c r="G150" s="4"/>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F151" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G151" s="6" t="s">
-        <v>292</v>
-      </c>
+      <c r="G151" s="6"/>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F152" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G152" s="4" t="s">
-        <v>292</v>
-      </c>
+      <c r="G152" s="4"/>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F153" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G153" s="6" t="s">
-        <v>292</v>
-      </c>
+      <c r="G153" s="6"/>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F154" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G154" s="4" t="s">
-        <v>292</v>
-      </c>
+      <c r="G154" s="4"/>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F155" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G155" s="6" t="s">
-        <v>292</v>
-      </c>
+      <c r="G155" s="6"/>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F156" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G156" s="4" t="s">
-        <v>292</v>
-      </c>
+      <c r="G156" s="4"/>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F157" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G157" s="6" t="s">
-        <v>292</v>
-      </c>
+      <c r="G157" s="6"/>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F158" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G158" s="4" t="s">
-        <v>304</v>
-      </c>
+      <c r="G158" s="4"/>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F159" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G159" s="6" t="s">
-        <v>304</v>
-      </c>
+      <c r="G159" s="6"/>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F160" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G160" s="4" t="s">
-        <v>292</v>
-      </c>
+      <c r="G160" s="4"/>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F161" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G161" s="6" t="s">
-        <v>292</v>
-      </c>
+      <c r="G161" s="6"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F162" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G162" s="4" t="s">
-        <v>292</v>
-      </c>
+      <c r="G162" s="4"/>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F163" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G163" s="6" t="s">
-        <v>292</v>
-      </c>
+      <c r="G163" s="6"/>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F164" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G164" s="4" t="s">
-        <v>292</v>
-      </c>
+      <c r="G164" s="4"/>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F165" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G165" s="6" t="s">
-        <v>292</v>
-      </c>
+      <c r="G165" s="6"/>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F166" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G166" s="4" t="s">
-        <v>292</v>
-      </c>
+      <c r="G166" s="4"/>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="C167" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D167" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="D167" s="6" t="s">
-        <v>291</v>
-      </c>
       <c r="E167" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F167" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G167" s="6" t="s">
-        <v>292</v>
-      </c>
+      <c r="G167" s="6"/>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="D168" s="4" t="s">
         <v>291</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F168" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G168" s="4" t="s">
-        <v>292</v>
-      </c>
+      <c r="G168" s="4"/>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F169" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G169" s="6" t="s">
-        <v>292</v>
-      </c>
+      <c r="G169" s="6"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>12</v>
@@ -5656,7 +5525,7 @@
         <v>7</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>12</v>
@@ -5679,122 +5548,112 @@
         <v>7</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F172" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G172" s="4" t="s">
-        <v>292</v>
-      </c>
+      <c r="G172" s="4"/>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F173" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G173" s="6" t="s">
-        <v>292</v>
-      </c>
+      <c r="G173" s="6"/>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F174" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G174" s="4" t="s">
-        <v>292</v>
-      </c>
+      <c r="G174" s="4"/>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F175" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G175" s="6" t="s">
-        <v>292</v>
-      </c>
+      <c r="G175" s="6"/>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F176" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G176" s="4" t="s">
-        <v>292</v>
-      </c>
+      <c r="G176" s="4"/>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="C177" s="6" t="s">
         <v>12</v>
@@ -5817,7 +5676,7 @@
         <v>7</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>12</v>
@@ -5840,7 +5699,7 @@
         <v>7</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="C179" s="6" t="s">
         <v>12</v>
@@ -5863,7 +5722,7 @@
         <v>7</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>12</v>
@@ -5886,13 +5745,13 @@
         <v>7</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="E181" s="6" t="s">
         <v>11</v>
@@ -5900,22 +5759,20 @@
       <c r="F181" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G181" s="6" t="s">
-        <v>332</v>
-      </c>
+      <c r="G181" s="6"/>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>333</v>
+        <v>306</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="E182" s="4" t="s">
         <v>11</v>
@@ -5923,22 +5780,20 @@
       <c r="F182" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G182" s="4" t="s">
-        <v>332</v>
-      </c>
+      <c r="G182" s="4"/>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="E183" s="6" t="s">
         <v>11</v>
@@ -5946,22 +5801,20 @@
       <c r="F183" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G183" s="6" t="s">
-        <v>332</v>
-      </c>
+      <c r="G183" s="6"/>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="E184" s="4" t="s">
         <v>11</v>
@@ -5969,22 +5822,20 @@
       <c r="F184" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G184" s="4" t="s">
-        <v>332</v>
-      </c>
+      <c r="G184" s="4"/>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="E185" s="6" t="s">
         <v>11</v>
@@ -5992,39 +5843,35 @@
       <c r="F185" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G185" s="6" t="s">
-        <v>332</v>
-      </c>
+      <c r="G185" s="6"/>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F186" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G186" s="4" t="s">
-        <v>340</v>
-      </c>
+      <c r="G186" s="4"/>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>12</v>
@@ -6047,7 +5894,7 @@
         <v>7</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>12</v>
@@ -6070,7 +5917,7 @@
         <v>7</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>12</v>
@@ -6093,16 +5940,16 @@
         <v>7</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F190" s="4" t="s">
         <v>12</v>
@@ -6116,7 +5963,7 @@
         <v>7</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>12</v>
@@ -6139,7 +5986,7 @@
         <v>7</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>12</v>
@@ -6162,7 +6009,7 @@
         <v>7</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="C193" s="6" t="s">
         <v>12</v>
@@ -6185,7 +6032,7 @@
         <v>7</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>12</v>
@@ -6208,7 +6055,7 @@
         <v>7</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>12</v>
@@ -6231,7 +6078,7 @@
         <v>7</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>12</v>
@@ -6254,7 +6101,7 @@
         <v>7</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>12</v>
@@ -6277,7 +6124,7 @@
         <v>7</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>12</v>
@@ -6300,7 +6147,7 @@
         <v>7</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>12</v>
@@ -6323,7 +6170,7 @@
         <v>7</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>12</v>
@@ -6346,7 +6193,7 @@
         <v>7</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>12</v>
@@ -6369,7 +6216,7 @@
         <v>7</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>12</v>
@@ -6392,13 +6239,13 @@
         <v>7</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="E203" s="6" t="s">
         <v>11</v>
@@ -6415,19 +6262,19 @@
         <v>7</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>364</v>
+        <v>335</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="G204" s="4" t="s">
         <v>12</v>
@@ -6438,7 +6285,7 @@
         <v>7</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="C205" s="6" t="s">
         <v>12</v>
@@ -6461,7 +6308,7 @@
         <v>7</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>12</v>
@@ -6484,7 +6331,7 @@
         <v>7</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>12</v>
@@ -6507,7 +6354,7 @@
         <v>7</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>12</v>
@@ -6530,7 +6377,7 @@
         <v>7</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
       <c r="C209" s="6" t="s">
         <v>12</v>
@@ -6553,7 +6400,7 @@
         <v>7</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>12</v>
@@ -6576,19 +6423,19 @@
         <v>7</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>372</v>
+        <v>343</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>373</v>
+        <v>344</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>375</v>
+        <v>346</v>
       </c>
       <c r="F211" s="6" t="s">
-        <v>376</v>
+        <v>347</v>
       </c>
       <c r="G211" s="6" t="s">
         <v>12</v>
@@ -6599,16 +6446,16 @@
         <v>7</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>377</v>
+        <v>348</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>377</v>
+        <v>348</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F212" s="4" t="s">
         <v>12</v>
@@ -6622,7 +6469,7 @@
         <v>7</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>379</v>
+        <v>350</v>
       </c>
       <c r="C213" s="6" t="s">
         <v>12</v>
@@ -6645,7 +6492,7 @@
         <v>7</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>380</v>
+        <v>351</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>12</v>
@@ -6668,7 +6515,7 @@
         <v>7</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="C215" s="6" t="s">
         <v>12</v>
@@ -6691,7 +6538,7 @@
         <v>7</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>382</v>
+        <v>353</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>12</v>
@@ -6714,7 +6561,7 @@
         <v>7</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="C217" s="6" t="s">
         <v>12</v>
@@ -6737,7 +6584,7 @@
         <v>7</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>12</v>
@@ -6760,7 +6607,7 @@
         <v>7</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>385</v>
+        <v>356</v>
       </c>
       <c r="C219" s="6" t="s">
         <v>12</v>
@@ -6783,16 +6630,16 @@
         <v>7</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>386</v>
+        <v>357</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>387</v>
+        <v>358</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>386</v>
+        <v>357</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F220" s="4" t="s">
         <v>12</v>
@@ -6806,7 +6653,7 @@
         <v>7</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>388</v>
+        <v>359</v>
       </c>
       <c r="C221" s="6" t="s">
         <v>12</v>
@@ -6829,7 +6676,7 @@
         <v>7</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>389</v>
+        <v>360</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>12</v>
@@ -6848,6 +6695,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G222">
+    <sortCondition ref="A1:A222"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>